--- a/src/test/java/WebTable/ulkeler.xlsx
+++ b/src/test/java/WebTable/ulkeler.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="578">
   <si>
     <t>Ülke (İngilizce)</t>
   </si>
@@ -1763,6 +1763,9 @@
   </si>
   <si>
     <t>54000</t>
+  </si>
+  <si>
+    <t>2500000</t>
   </si>
 </sst>
 </file>
@@ -2379,7 +2382,7 @@
         <v>30</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -2451,8 +2454,8 @@
       <c r="D15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E15" t="s" s="0">
-        <v>576</v>
+      <c r="E15" t="n" s="0">
+        <v>54000.0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20" thickBot="1" x14ac:dyDescent="0.3">
